--- a/excel_routes/route_YNB_CAI_threats.xlsx
+++ b/excel_routes/route_YNB_CAI_threats.xlsx
@@ -48,14 +48,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D4EDDA"/>
-        <bgColor rgb="00D4EDDA"/>
+        <fgColor rgb="00FFF3CD"/>
+        <bgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFF3CD"/>
-        <bgColor rgb="00FFF3CD"/>
+        <fgColor rgb="00D4EDDA"/>
+        <bgColor rgb="00D4EDDA"/>
       </patternFill>
     </fill>
     <fill>
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,7 +546,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>11-JAN-26</t>
+          <t>15-JAN-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-181</t>
+          <t>Nile Air NP-104</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>600</v>
+        <v>471</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>748</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-148</v>
+        <v>-277</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -579,7 +579,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
@@ -601,17 +601,17 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-104</t>
+          <t>Nesma Airlines NE-181</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>521</v>
+        <v>600</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>748</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-227</v>
+        <v>-148</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>30</v>
@@ -624,7 +624,7 @@
       </c>
       <c r="J3" s="4" t="inlineStr">
         <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
@@ -636,7 +636,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>09-FEB-26</t>
+          <t>20-JAN-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -646,17 +646,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-187</t>
+          <t>Nile Air NP-104</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>343</v>
+        <v>471</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>370</v>
+        <v>538</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-27</v>
+        <v>-67</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>30</v>
@@ -667,7 +667,7 @@
       <c r="I4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J4" s="3" t="inlineStr">
+      <c r="J4" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -681,7 +681,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>09-FEB-26</t>
+          <t>22-JAN-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -691,17 +691,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-185</t>
+          <t>Nile Air NP-104</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>343</v>
+        <v>471</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>370</v>
+        <v>478</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-27</v>
+        <v>-7</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>30</v>
@@ -712,7 +712,7 @@
       <c r="I5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J5" s="3" t="inlineStr">
+      <c r="J5" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -726,7 +726,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>10-FEB-26</t>
+          <t>25-JAN-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -736,17 +736,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-187</t>
+          <t>Nesma Airlines NE-181</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>343</v>
+        <v>450</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>370</v>
+        <v>478</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-27</v>
+        <v>-28</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>30</v>
@@ -757,7 +757,7 @@
       <c r="I6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J6" s="3" t="inlineStr">
+      <c r="J6" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -771,7 +771,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>10-FEB-26</t>
+          <t>08-FEB-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-185</t>
+          <t>Nesma Airlines NE-187</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
@@ -802,7 +802,7 @@
       <c r="I7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="3" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -816,7 +816,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>10-FEB-26</t>
+          <t>08-FEB-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-183</t>
+          <t>Nesma Airlines NE-181</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
@@ -847,7 +847,7 @@
       <c r="I8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J8" s="3" t="inlineStr">
+      <c r="J8" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -861,7 +861,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>11-FEB-26</t>
+          <t>08-FEB-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-185</t>
+          <t>Nesma Airlines NE-183</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
@@ -892,7 +892,7 @@
       <c r="I9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="inlineStr">
+      <c r="J9" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -906,7 +906,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>11-FEB-26</t>
+          <t>09-FEB-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -916,17 +916,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-183</t>
+          <t>Nesma Airlines NE-187</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
         <v>343</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>370</v>
+        <v>748</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-27</v>
+        <v>-405</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>30</v>
@@ -937,9 +937,9 @@
       <c r="I10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J10" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -951,7 +951,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>12-FEB-26</t>
+          <t>09-FEB-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -968,10 +968,10 @@
         <v>343</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>400</v>
+        <v>748</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-57</v>
+        <v>-405</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>30</v>
@@ -982,9 +982,9 @@
       <c r="I11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J11" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J11" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -996,7 +996,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>13-FEB-26</t>
+          <t>10-FEB-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-183</t>
+          <t>Nesma Airlines NE-187</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
@@ -1027,7 +1027,7 @@
       <c r="I12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="3" t="inlineStr">
+      <c r="J12" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1041,7 +1041,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>14-FEB-26</t>
+          <t>10-FEB-26</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-181</t>
+          <t>Nesma Airlines NE-185</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
@@ -1072,7 +1072,7 @@
       <c r="I13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J13" s="3" t="inlineStr">
+      <c r="J13" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1086,7 +1086,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>15-FEB-26</t>
+          <t>10-FEB-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       <c r="I14" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="inlineStr">
+      <c r="J14" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1131,7 +1131,7 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>16-FEB-26</t>
+          <t>11-FEB-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-187</t>
+          <t>Nesma Airlines NE-185</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
@@ -1162,7 +1162,7 @@
       <c r="I15" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J15" s="3" t="inlineStr">
+      <c r="J15" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1176,7 +1176,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>16-FEB-26</t>
+          <t>12-FEB-26</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -1186,17 +1186,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-181</t>
+          <t>Nesma Airlines NE-185</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
         <v>343</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-27</v>
+        <v>-57</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>30</v>
@@ -1207,7 +1207,7 @@
       <c r="I16" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J16" s="3" t="inlineStr">
+      <c r="J16" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1221,7 +1221,7 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>16-FEB-26</t>
+          <t>13-FEB-26</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-185</t>
+          <t>Nesma Airlines NE-183</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
@@ -1252,7 +1252,7 @@
       <c r="I17" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J17" s="3" t="inlineStr">
+      <c r="J17" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1266,7 +1266,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>17-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-187</t>
+          <t>Nesma Airlines NE-181</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
@@ -1297,7 +1297,7 @@
       <c r="I18" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J18" s="3" t="inlineStr">
+      <c r="J18" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1311,7 +1311,7 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>17-FEB-26</t>
+          <t>15-FEB-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-181</t>
+          <t>Nesma Airlines NE-183</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
@@ -1342,7 +1342,7 @@
       <c r="I19" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J19" s="3" t="inlineStr">
+      <c r="J19" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1356,7 +1356,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>17-FEB-26</t>
+          <t>16-FEB-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-185</t>
+          <t>Nesma Airlines NE-187</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
@@ -1387,7 +1387,7 @@
       <c r="I20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="inlineStr">
+      <c r="J20" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1401,7 +1401,7 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>17-FEB-26</t>
+          <t>16-FEB-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-183</t>
+          <t>Nesma Airlines NE-181</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
@@ -1432,7 +1432,7 @@
       <c r="I21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J21" s="3" t="inlineStr">
+      <c r="J21" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1446,7 +1446,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>18-FEB-26</t>
+          <t>16-FEB-26</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-189</t>
+          <t>Nesma Airlines NE-185</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
@@ -1477,7 +1477,7 @@
       <c r="I22" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="inlineStr">
+      <c r="J22" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1491,7 +1491,7 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>18-FEB-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-187</t>
+          <t>Nesma Airlines NE-185</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
@@ -1522,7 +1522,7 @@
       <c r="I23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J23" s="3" t="inlineStr">
+      <c r="J23" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1536,7 +1536,7 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>18-FEB-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -1567,7 +1567,7 @@
       <c r="I24" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="inlineStr">
+      <c r="J24" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>SM-942</t>
+          <t>SM-442</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -1598,10 +1598,10 @@
         <v>343</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>628</v>
+        <v>370</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-285</v>
+        <v>-27</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>30</v>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="J25" s="4" t="inlineStr">
         <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-187</t>
+          <t>Nesma Airlines NE-189</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
@@ -1657,7 +1657,7 @@
       <c r="I26" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J26" s="4" t="inlineStr">
+      <c r="J26" s="3" t="inlineStr">
         <is>
           <t>MEDIUM THREAT - MONITOR</t>
         </is>
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>343</v>
+        <v>450</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>628</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-285</v>
+        <v>-178</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>30</v>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="J27" s="4" t="inlineStr">
         <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
@@ -1820,13 +1820,13 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>763</v>
+        <v>571</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>988</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-225</v>
+        <v>-417</v>
       </c>
       <c r="G30" s="2" t="n">
         <v>30</v>
@@ -1837,9 +1837,9 @@
       <c r="I30" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J30" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J30" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>21-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
@@ -1906,17 +1906,17 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-181</t>
+          <t>Nile Air NP-114</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>343</v>
+        <v>471</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>988</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-645</v>
+        <v>-517</v>
       </c>
       <c r="G32" s="2" t="n">
         <v>30</v>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-183</t>
+          <t>Nesma Airlines NE-181</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
@@ -1986,7 +1986,7 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>21-FEB-26</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
@@ -1996,17 +1996,17 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-104</t>
+          <t>Nesma Airlines NE-183</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>1101</v>
+        <v>343</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>1318</v>
+        <v>988</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-217</v>
+        <v>-645</v>
       </c>
       <c r="G34" s="2" t="n">
         <v>30</v>
@@ -2017,12 +2017,57 @@
       <c r="I34" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J34" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J34" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>22-FEB-26</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>SM-956</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-304</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>2071</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>3238</v>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>-1167</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>

--- a/excel_routes/route_YNB_CAI_threats.xlsx
+++ b/excel_routes/route_YNB_CAI_threats.xlsx
@@ -591,7 +591,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>22-JAN-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -601,17 +601,17 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-181</t>
+          <t>Nile Air NP-104</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>491</v>
+        <v>440</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-91</v>
+        <v>-52</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>30</v>

--- a/excel_routes/route_YNB_CAI_threats.xlsx
+++ b/excel_routes/route_YNB_CAI_threats.xlsx
@@ -48,14 +48,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D4EDDA"/>
-        <bgColor rgb="00D4EDDA"/>
+        <fgColor rgb="00F8D7DA"/>
+        <bgColor rgb="00F8D7DA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F8D7DA"/>
-        <bgColor rgb="00F8D7DA"/>
+        <fgColor rgb="00D4EDDA"/>
+        <bgColor rgb="00D4EDDA"/>
       </patternFill>
     </fill>
     <fill>
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,7 +546,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>03-FEB-26</t>
+          <t>06-FEB-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-181</t>
+          <t>Nile Air NP-104</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>400</v>
+        <v>471</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>404</v>
+        <v>874</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-4</v>
+        <v>-403</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -579,7 +579,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
@@ -591,27 +591,27 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>06-FEB-26</t>
+          <t>08-FEB-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>SM-442</t>
+          <t>SM-984</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-104</t>
+          <t>Nile Air NP-114</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>571</v>
+        <v>288</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1154</v>
+        <v>374</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-583</v>
+        <v>-86</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>30</v>
@@ -624,7 +624,7 @@
       </c>
       <c r="J3" s="4" t="inlineStr">
         <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
@@ -636,27 +636,27 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>17-FEB-26</t>
+          <t>08-FEB-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>SM-442</t>
+          <t>SM-986</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-187</t>
+          <t>Nile Air NP-114</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-70</v>
+        <v>-60</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>30</v>
@@ -667,7 +667,7 @@
       <c r="I4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J4" s="3" t="inlineStr">
+      <c r="J4" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -681,7 +681,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>17-FEB-26</t>
+          <t>09-FEB-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -691,17 +691,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-181</t>
+          <t>Nile Air NP-304</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-70</v>
+        <v>-60</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>30</v>
@@ -712,7 +712,7 @@
       <c r="I5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J5" s="3" t="inlineStr">
+      <c r="J5" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -726,7 +726,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>17-FEB-26</t>
+          <t>10-FEB-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -736,17 +736,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-183</t>
+          <t>Nile Air NP-104</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-70</v>
+        <v>-60</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>30</v>
@@ -757,7 +757,7 @@
       <c r="I6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J6" s="3" t="inlineStr">
+      <c r="J6" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -771,7 +771,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>18-FEB-26</t>
+          <t>10-FEB-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -788,10 +788,10 @@
         <v>300</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-70</v>
+        <v>-48</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>30</v>
@@ -802,7 +802,7 @@
       <c r="I7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="3" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -816,7 +816,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>11-FEB-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -826,17 +826,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-181</t>
+          <t>Nesma Airlines NE-185</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
         <v>300</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-70</v>
+        <v>-48</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>30</v>
@@ -847,7 +847,7 @@
       <c r="I8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J8" s="3" t="inlineStr">
+      <c r="J8" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -861,7 +861,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>20-FEB-26</t>
+          <t>12-FEB-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -871,17 +871,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-183</t>
+          <t>Nile Air NP-104</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-70</v>
+        <v>-116</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>30</v>
@@ -892,7 +892,7 @@
       <c r="I9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="inlineStr">
+      <c r="J9" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -906,7 +906,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>13-FEB-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -916,17 +916,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-304</t>
+          <t>Nile Air NP-104</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>2071</v>
+        <v>288</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>2278</v>
+        <v>348</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-207</v>
+        <v>-60</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>30</v>
@@ -937,9 +937,9 @@
       <c r="I10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J10" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -951,7 +951,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>16-FEB-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -961,17 +961,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-104</t>
+          <t>Nile Air NP-304</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>2071</v>
+        <v>288</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>2278</v>
+        <v>370</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-207</v>
+        <v>-82</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>30</v>
@@ -982,9 +982,9 @@
       <c r="I11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J11" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J11" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -996,7 +996,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>18-MAR-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -1006,17 +1006,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-304</t>
+          <t>Nile Air NP-104</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1471</v>
+        <v>288</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>2278</v>
+        <v>370</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-807</v>
+        <v>-82</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>30</v>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="J12" s="4" t="inlineStr">
         <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1041,7 +1041,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>18-FEB-26</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1051,17 +1051,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-104</t>
+          <t>Nile Air NP-304</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>1471</v>
+        <v>288</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>2278</v>
+        <v>370</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-807</v>
+        <v>-82</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>30</v>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="J13" s="4" t="inlineStr">
         <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1086,7 +1086,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1096,17 +1096,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-304</t>
+          <t>Nile Air NP-104</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1101</v>
+        <v>288</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>2278</v>
+        <v>370</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-1177</v>
+        <v>-82</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>30</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="J14" s="4" t="inlineStr">
         <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1131,27 +1131,27 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>25-MAR-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>SM-988</t>
+          <t>SM-932</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-404</t>
+          <t>Nile Air NP-104</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1271</v>
+        <v>288</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>3238</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-1967</v>
+        <v>-2950</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>30</v>
@@ -1162,7 +1162,7 @@
       <c r="I15" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J15" s="4" t="inlineStr">
+      <c r="J15" s="3" t="inlineStr">
         <is>
           <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
@@ -1176,43 +1176,988 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>25-MAR-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>SM-988</t>
+          <t>SM-932</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-114</t>
+          <t>Nesma Airlines NE-181</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1471</v>
+        <v>400</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>3238</v>
       </c>
       <c r="F16" s="2" t="n">
+        <v>-2838</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>19-FEB-26</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>SM-932</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Nesma Airlines NE-185</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>3238</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>-2838</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>20-FEB-26</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>SM-442</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-114</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>288</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>370</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>-82</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>20-FEB-26</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>SM-932</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-114</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>288</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>3238</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>-2950</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>20-FEB-26</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>SM-932</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Nesma Airlines NE-183</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>3238</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>-2838</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>20-FEB-26</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>SM-932</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>Nesma Airlines NE-187</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>520</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>3238</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>-2718</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>22-FEB-26</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>SM-442</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-304</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>288</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>370</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>-82</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>23-FEB-26</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>SM-442</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-104</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>288</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>370</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>-82</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>23-FEB-26</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>SM-932</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-104</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>288</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>3238</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>-2950</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>01-MAR-26</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>SM-442</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-104</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>521</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>538</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>-17</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>03-MAR-26</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>SM-442</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-104</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>471</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>538</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>-67</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>05-MAR-26</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>SM-442</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-104</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>671</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>868</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>-197</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>10-MAR-26</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>SM-442</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-104</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>671</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>748</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>-77</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>12-MAR-26</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>SM-442</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-104</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>863</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>988</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>-125</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>17-MAR-26</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>SM-442</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-304</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>1271</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>2278</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>-1007</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>17-MAR-26</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>SM-442</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-104</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>1271</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>2278</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>-1007</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>18-MAR-26</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>SM-442</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-304</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>1471</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>2278</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>-807</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>19-MAR-26</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>SM-988</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-104</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>1471</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>2278</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>-807</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>24-MAR-26</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>SM-442</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-304</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>971</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>2278</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>-1307</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>24-MAR-26</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>SM-442</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-104</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>2071</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>2278</v>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>-207</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>25-MAR-26</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>SM-988</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-404</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>1271</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>3238</v>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>-1967</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>25-MAR-26</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>SM-988</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-114</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>1471</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>3238</v>
+      </c>
+      <c r="F37" s="2" t="n">
         <v>-1767</v>
       </c>
-      <c r="G16" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="4" t="inlineStr">
+      <c r="G37" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I37" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="3" t="inlineStr">
         <is>
           <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
+      <c r="K37" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>

--- a/excel_routes/route_YNB_CAI_threats.xlsx
+++ b/excel_routes/route_YNB_CAI_threats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODERED\LAB\Artifacts\outputs\run_generated_030226_at_07.14\reports\excel_routes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODERED\LAB\Artifacts\outputs\run_generated_300126_at_05.16\reports\excel_routes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10EA1AA-3C11-4CFC-8C85-670C89CA5072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B448CE4D-BFA7-4660-9D0B-CEEB3B090832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -78,82 +78,109 @@
     <t>08-FEB-26</t>
   </si>
   <si>
+    <t>SM-984</t>
+  </si>
+  <si>
+    <t>Nile Air NP-114</t>
+  </si>
+  <si>
+    <t>LOW THREAT</t>
+  </si>
+  <si>
+    <t>SM-986</t>
+  </si>
+  <si>
+    <t>09-FEB-26</t>
+  </si>
+  <si>
+    <t>Nile Air NP-304</t>
+  </si>
+  <si>
+    <t>10-FEB-26</t>
+  </si>
+  <si>
+    <t>Nesma Airlines NE-183</t>
+  </si>
+  <si>
+    <t>11-FEB-26</t>
+  </si>
+  <si>
+    <t>Nesma Airlines NE-185</t>
+  </si>
+  <si>
+    <t>12-FEB-26</t>
+  </si>
+  <si>
+    <t>13-FEB-26</t>
+  </si>
+  <si>
+    <t>16-FEB-26</t>
+  </si>
+  <si>
+    <t>17-FEB-26</t>
+  </si>
+  <si>
+    <t>18-FEB-26</t>
+  </si>
+  <si>
+    <t>19-FEB-26</t>
+  </si>
+  <si>
+    <t>SM-932</t>
+  </si>
+  <si>
+    <t>Nesma Airlines NE-181</t>
+  </si>
+  <si>
+    <t>20-FEB-26</t>
+  </si>
+  <si>
     <t>Nesma Airlines NE-187</t>
   </si>
   <si>
-    <t>LOW THREAT</t>
-  </si>
-  <si>
-    <t>Nile Air NP-114</t>
-  </si>
-  <si>
-    <t>SM-984</t>
-  </si>
-  <si>
-    <t>SM-986</t>
-  </si>
-  <si>
-    <t>09-FEB-26</t>
-  </si>
-  <si>
-    <t>Nile Air NP-304</t>
-  </si>
-  <si>
-    <t>10-FEB-26</t>
-  </si>
-  <si>
-    <t>Nesma Airlines NE-185</t>
-  </si>
-  <si>
-    <t>Nesma Airlines NE-183</t>
-  </si>
-  <si>
-    <t>11-FEB-26</t>
-  </si>
-  <si>
-    <t>12-FEB-26</t>
-  </si>
-  <si>
-    <t>13-FEB-26</t>
-  </si>
-  <si>
-    <t>16-FEB-26</t>
-  </si>
-  <si>
-    <t>17-FEB-26</t>
-  </si>
-  <si>
-    <t>18-FEB-26</t>
-  </si>
-  <si>
-    <t>19-FEB-26</t>
-  </si>
-  <si>
-    <t>20-FEB-26</t>
-  </si>
-  <si>
-    <t>SM-932</t>
-  </si>
-  <si>
     <t>22-FEB-26</t>
   </si>
   <si>
     <t>23-FEB-26</t>
   </si>
   <si>
-    <t>24-FEB-26</t>
-  </si>
-  <si>
-    <t>SM-942</t>
-  </si>
-  <si>
-    <t>25-FEB-26</t>
-  </si>
-  <si>
     <t>01-MAR-26</t>
   </si>
   <si>
     <t>03-MAR-26</t>
+  </si>
+  <si>
+    <t>05-MAR-26</t>
+  </si>
+  <si>
+    <t>10-MAR-26</t>
+  </si>
+  <si>
+    <t>12-MAR-26</t>
+  </si>
+  <si>
+    <t>17-MAR-26</t>
+  </si>
+  <si>
+    <t>18-MAR-26</t>
+  </si>
+  <si>
+    <t>19-MAR-26</t>
+  </si>
+  <si>
+    <t>SM-988</t>
+  </si>
+  <si>
+    <t>24-MAR-26</t>
+  </si>
+  <si>
+    <t>MEDIUM THREAT - MONITOR</t>
+  </si>
+  <si>
+    <t>25-MAR-26</t>
+  </si>
+  <si>
+    <t>Nile Air NP-404</t>
   </si>
 </sst>
 </file>
@@ -180,7 +207,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +230,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD4EDDA"/>
         <bgColor rgb="FFD4EDDA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF3CD"/>
+        <bgColor rgb="FFFFF3CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -233,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -245,6 +278,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -550,7 +586,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -617,10 +653,10 @@
         <v>471</v>
       </c>
       <c r="E2" s="2">
-        <v>988</v>
+        <v>874</v>
       </c>
       <c r="F2" s="2">
-        <v>-517</v>
+        <v>-403</v>
       </c>
       <c r="G2" s="2">
         <v>30</v>
@@ -643,19 +679,19 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="E3" s="2">
-        <v>436</v>
+        <v>374</v>
       </c>
       <c r="F3" s="2">
-        <v>-91</v>
+        <v>-86</v>
       </c>
       <c r="G3" s="2">
         <v>30</v>
@@ -667,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>15</v>
@@ -678,31 +714,31 @@
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2">
+        <v>288</v>
+      </c>
+      <c r="E4" s="2">
+        <v>348</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-60</v>
+      </c>
+      <c r="G4" s="2">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" s="2">
-        <v>346</v>
-      </c>
-      <c r="E4" s="2">
-        <v>436</v>
-      </c>
-      <c r="F4" s="2">
-        <v>-90</v>
-      </c>
-      <c r="G4" s="2">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2">
-        <v>30</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>15</v>
@@ -710,22 +746,22 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="E5" s="2">
-        <v>400</v>
+        <v>348</v>
       </c>
       <c r="F5" s="2">
-        <v>-55</v>
+        <v>-60</v>
       </c>
       <c r="G5" s="2">
         <v>30</v>
@@ -737,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>15</v>
@@ -745,34 +781,34 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2">
+        <v>288</v>
+      </c>
+      <c r="E6" s="2">
+        <v>348</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-60</v>
+      </c>
+      <c r="G6" s="2">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="2">
-        <v>346</v>
-      </c>
-      <c r="E6" s="2">
-        <v>400</v>
-      </c>
-      <c r="F6" s="2">
-        <v>-54</v>
-      </c>
-      <c r="G6" s="2">
-        <v>30</v>
-      </c>
-      <c r="H6" s="2">
-        <v>30</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>15</v>
@@ -780,22 +816,22 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2">
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="E7" s="2">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="F7" s="2">
-        <v>-25</v>
+        <v>-48</v>
       </c>
       <c r="G7" s="2">
         <v>30</v>
@@ -807,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>15</v>
@@ -815,34 +851,34 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2">
+        <v>300</v>
+      </c>
+      <c r="E8" s="2">
+        <v>348</v>
+      </c>
+      <c r="F8" s="2">
+        <v>-48</v>
+      </c>
+      <c r="G8" s="2">
+        <v>30</v>
+      </c>
+      <c r="H8" s="2">
+        <v>30</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="D8" s="2">
-        <v>346</v>
-      </c>
-      <c r="E8" s="2">
-        <v>370</v>
-      </c>
-      <c r="F8" s="2">
-        <v>-24</v>
-      </c>
-      <c r="G8" s="2">
-        <v>30</v>
-      </c>
-      <c r="H8" s="2">
-        <v>30</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>15</v>
@@ -850,22 +886,22 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="E9" s="2">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="F9" s="2">
-        <v>-25</v>
+        <v>-116</v>
       </c>
       <c r="G9" s="2">
         <v>30</v>
@@ -877,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>15</v>
@@ -885,22 +921,22 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2">
-        <v>346</v>
+        <v>288</v>
       </c>
       <c r="E10" s="2">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="F10" s="2">
-        <v>-24</v>
+        <v>-60</v>
       </c>
       <c r="G10" s="2">
         <v>30</v>
@@ -912,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>15</v>
@@ -920,22 +956,22 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="E11" s="2">
         <v>370</v>
       </c>
       <c r="F11" s="2">
-        <v>-25</v>
+        <v>-82</v>
       </c>
       <c r="G11" s="2">
         <v>30</v>
@@ -947,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>15</v>
@@ -955,22 +991,22 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="E12" s="2">
         <v>370</v>
       </c>
       <c r="F12" s="2">
-        <v>-25</v>
+        <v>-82</v>
       </c>
       <c r="G12" s="2">
         <v>30</v>
@@ -982,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>15</v>
@@ -990,22 +1026,22 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2">
-        <v>346</v>
+        <v>288</v>
       </c>
       <c r="E13" s="2">
         <v>370</v>
       </c>
       <c r="F13" s="2">
-        <v>-24</v>
+        <v>-82</v>
       </c>
       <c r="G13" s="2">
         <v>30</v>
@@ -1017,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>15</v>
@@ -1025,22 +1061,22 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="E14" s="2">
         <v>370</v>
       </c>
       <c r="F14" s="2">
-        <v>-25</v>
+        <v>-82</v>
       </c>
       <c r="G14" s="2">
         <v>30</v>
@@ -1052,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>15</v>
@@ -1060,22 +1096,22 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="2">
-        <v>346</v>
+        <v>288</v>
       </c>
       <c r="E15" s="2">
-        <v>436</v>
+        <v>3238</v>
       </c>
       <c r="F15" s="2">
-        <v>-90</v>
+        <v>-2950</v>
       </c>
       <c r="G15" s="2">
         <v>30</v>
@@ -1086,8 +1122,8 @@
       <c r="I15" s="2">
         <v>0</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>18</v>
+      <c r="J15" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>15</v>
@@ -1095,22 +1131,22 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2">
-        <v>346</v>
+        <v>400</v>
       </c>
       <c r="E16" s="2">
-        <v>400</v>
+        <v>3238</v>
       </c>
       <c r="F16" s="2">
-        <v>-54</v>
+        <v>-2838</v>
       </c>
       <c r="G16" s="2">
         <v>30</v>
@@ -1121,8 +1157,8 @@
       <c r="I16" s="2">
         <v>0</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>18</v>
+      <c r="J16" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>15</v>
@@ -1130,22 +1166,22 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D17" s="2">
-        <v>346</v>
+        <v>400</v>
       </c>
       <c r="E17" s="2">
-        <v>370</v>
+        <v>3238</v>
       </c>
       <c r="F17" s="2">
-        <v>-24</v>
+        <v>-2838</v>
       </c>
       <c r="G17" s="2">
         <v>30</v>
@@ -1156,8 +1192,8 @@
       <c r="I17" s="2">
         <v>0</v>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>18</v>
+      <c r="J17" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>15</v>
@@ -1165,22 +1201,22 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D18" s="2">
-        <v>346</v>
+        <v>288</v>
       </c>
       <c r="E18" s="2">
         <v>370</v>
       </c>
       <c r="F18" s="2">
-        <v>-24</v>
+        <v>-82</v>
       </c>
       <c r="G18" s="2">
         <v>30</v>
@@ -1192,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>15</v>
@@ -1200,22 +1236,22 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D19" s="2">
-        <v>346</v>
+        <v>288</v>
       </c>
       <c r="E19" s="2">
-        <v>370</v>
+        <v>3238</v>
       </c>
       <c r="F19" s="2">
-        <v>-24</v>
+        <v>-2950</v>
       </c>
       <c r="G19" s="2">
         <v>30</v>
@@ -1226,8 +1262,8 @@
       <c r="I19" s="2">
         <v>0</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>18</v>
+      <c r="J19" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>15</v>
@@ -1235,22 +1271,22 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D20" s="2">
-        <v>346</v>
+        <v>400</v>
       </c>
       <c r="E20" s="2">
-        <v>370</v>
+        <v>3238</v>
       </c>
       <c r="F20" s="2">
-        <v>-24</v>
+        <v>-2838</v>
       </c>
       <c r="G20" s="2">
         <v>30</v>
@@ -1261,8 +1297,8 @@
       <c r="I20" s="2">
         <v>0</v>
       </c>
-      <c r="J20" s="4" t="s">
-        <v>18</v>
+      <c r="J20" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>15</v>
@@ -1270,22 +1306,22 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D21" s="2">
-        <v>346</v>
+        <v>520</v>
       </c>
       <c r="E21" s="2">
-        <v>370</v>
+        <v>3238</v>
       </c>
       <c r="F21" s="2">
-        <v>-24</v>
+        <v>-2718</v>
       </c>
       <c r="G21" s="2">
         <v>30</v>
@@ -1296,8 +1332,8 @@
       <c r="I21" s="2">
         <v>0</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>18</v>
+      <c r="J21" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>15</v>
@@ -1305,34 +1341,34 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="2">
+        <v>288</v>
+      </c>
+      <c r="E22" s="2">
+        <v>370</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-82</v>
+      </c>
+      <c r="G22" s="2">
+        <v>30</v>
+      </c>
+      <c r="H22" s="2">
+        <v>30</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="D22" s="2">
-        <v>346</v>
-      </c>
-      <c r="E22" s="2">
-        <v>3238</v>
-      </c>
-      <c r="F22" s="2">
-        <v>-2892</v>
-      </c>
-      <c r="G22" s="2">
-        <v>30</v>
-      </c>
-      <c r="H22" s="2">
-        <v>30</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>15</v>
@@ -1340,22 +1376,22 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2">
-        <v>400</v>
+        <v>288</v>
       </c>
       <c r="E23" s="2">
-        <v>3238</v>
+        <v>370</v>
       </c>
       <c r="F23" s="2">
-        <v>-2838</v>
+        <v>-82</v>
       </c>
       <c r="G23" s="2">
         <v>30</v>
@@ -1366,8 +1402,8 @@
       <c r="I23" s="2">
         <v>0</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>14</v>
+      <c r="J23" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>15</v>
@@ -1375,22 +1411,22 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2">
-        <v>520</v>
+        <v>288</v>
       </c>
       <c r="E24" s="2">
         <v>3238</v>
       </c>
       <c r="F24" s="2">
-        <v>-2718</v>
+        <v>-2950</v>
       </c>
       <c r="G24" s="2">
         <v>30</v>
@@ -1410,22 +1446,22 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2">
-        <v>346</v>
+        <v>521</v>
       </c>
       <c r="E25" s="2">
-        <v>370</v>
+        <v>538</v>
       </c>
       <c r="F25" s="2">
-        <v>-24</v>
+        <v>-17</v>
       </c>
       <c r="G25" s="2">
         <v>30</v>
@@ -1437,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>15</v>
@@ -1445,7 +1481,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>12</v>
@@ -1454,13 +1490,13 @@
         <v>13</v>
       </c>
       <c r="D26" s="2">
-        <v>346</v>
+        <v>471</v>
       </c>
       <c r="E26" s="2">
-        <v>370</v>
+        <v>538</v>
       </c>
       <c r="F26" s="2">
-        <v>-24</v>
+        <v>-67</v>
       </c>
       <c r="G26" s="2">
         <v>30</v>
@@ -1472,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>15</v>
@@ -1480,22 +1516,22 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="2">
-        <v>346</v>
+        <v>671</v>
       </c>
       <c r="E27" s="2">
-        <v>478</v>
+        <v>868</v>
       </c>
       <c r="F27" s="2">
-        <v>-132</v>
+        <v>-197</v>
       </c>
       <c r="G27" s="2">
         <v>30</v>
@@ -1507,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>15</v>
@@ -1515,7 +1551,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>12</v>
@@ -1524,13 +1560,13 @@
         <v>13</v>
       </c>
       <c r="D28" s="2">
-        <v>346</v>
+        <v>671</v>
       </c>
       <c r="E28" s="2">
-        <v>400</v>
+        <v>748</v>
       </c>
       <c r="F28" s="2">
-        <v>-54</v>
+        <v>-77</v>
       </c>
       <c r="G28" s="2">
         <v>30</v>
@@ -1542,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>15</v>
@@ -1550,22 +1586,22 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="2">
-        <v>346</v>
+        <v>863</v>
       </c>
       <c r="E29" s="2">
-        <v>370</v>
+        <v>988</v>
       </c>
       <c r="F29" s="2">
-        <v>-24</v>
+        <v>-125</v>
       </c>
       <c r="G29" s="2">
         <v>30</v>
@@ -1577,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>15</v>
@@ -1585,22 +1621,22 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D30" s="2">
-        <v>346</v>
+        <v>1271</v>
       </c>
       <c r="E30" s="2">
-        <v>400</v>
+        <v>2278</v>
       </c>
       <c r="F30" s="2">
-        <v>-54</v>
+        <v>-1007</v>
       </c>
       <c r="G30" s="2">
         <v>30</v>
@@ -1611,8 +1647,8 @@
       <c r="I30" s="2">
         <v>0</v>
       </c>
-      <c r="J30" s="4" t="s">
-        <v>18</v>
+      <c r="J30" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>15</v>
@@ -1620,7 +1656,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>12</v>
@@ -1629,13 +1665,13 @@
         <v>13</v>
       </c>
       <c r="D31" s="2">
-        <v>521</v>
+        <v>1271</v>
       </c>
       <c r="E31" s="2">
-        <v>538</v>
+        <v>2278</v>
       </c>
       <c r="F31" s="2">
-        <v>-17</v>
+        <v>-1007</v>
       </c>
       <c r="G31" s="2">
         <v>30</v>
@@ -1646,8 +1682,8 @@
       <c r="I31" s="2">
         <v>0</v>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>18</v>
+      <c r="J31" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>15</v>
@@ -1655,36 +1691,211 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1471</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2278</v>
+      </c>
+      <c r="F32" s="2">
+        <v>-807</v>
+      </c>
+      <c r="G32" s="2">
+        <v>30</v>
+      </c>
+      <c r="H32" s="2">
+        <v>30</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="2">
-        <v>471</v>
-      </c>
-      <c r="E32" s="2">
-        <v>538</v>
-      </c>
-      <c r="F32" s="2">
-        <v>-67</v>
-      </c>
-      <c r="G32" s="2">
-        <v>30</v>
-      </c>
-      <c r="H32" s="2">
-        <v>30</v>
-      </c>
-      <c r="I32" s="2">
-        <v>0</v>
-      </c>
-      <c r="J32" s="4" t="s">
+      <c r="D33" s="2">
+        <v>1471</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2278</v>
+      </c>
+      <c r="F33" s="2">
+        <v>-807</v>
+      </c>
+      <c r="G33" s="2">
+        <v>30</v>
+      </c>
+      <c r="H33" s="2">
+        <v>30</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="2">
+        <v>971</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2278</v>
+      </c>
+      <c r="F34" s="2">
+        <v>-1307</v>
+      </c>
+      <c r="G34" s="2">
+        <v>30</v>
+      </c>
+      <c r="H34" s="2">
+        <v>30</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2071</v>
+      </c>
+      <c r="E35" s="2">
+        <v>2278</v>
+      </c>
+      <c r="F35" s="2">
+        <v>-207</v>
+      </c>
+      <c r="G35" s="2">
+        <v>30</v>
+      </c>
+      <c r="H35" s="2">
+        <v>30</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1271</v>
+      </c>
+      <c r="E36" s="2">
+        <v>3238</v>
+      </c>
+      <c r="F36" s="2">
+        <v>-1967</v>
+      </c>
+      <c r="G36" s="2">
+        <v>30</v>
+      </c>
+      <c r="H36" s="2">
+        <v>30</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="D37" s="2">
+        <v>1471</v>
+      </c>
+      <c r="E37" s="2">
+        <v>3238</v>
+      </c>
+      <c r="F37" s="2">
+        <v>-1767</v>
+      </c>
+      <c r="G37" s="2">
+        <v>30</v>
+      </c>
+      <c r="H37" s="2">
+        <v>30</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/excel_routes/route_YNB_CAI_threats.xlsx
+++ b/excel_routes/route_YNB_CAI_threats.xlsx
@@ -48,6 +48,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFF3CD"/>
+        <bgColor rgb="00FFF3CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00D4EDDA"/>
         <bgColor rgb="00D4EDDA"/>
       </patternFill>
@@ -56,12 +62,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00F8D7DA"/>
         <bgColor rgb="00F8D7DA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF3CD"/>
-        <bgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,7 +546,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>23-FEB-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-104</t>
+          <t>Nesma Airlines NE-181</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>370</v>
+        <v>748</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-30</v>
+        <v>-348</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -579,7 +579,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
@@ -591,27 +591,27 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>24-FEB-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>SM-942</t>
+          <t>SM-442</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-187</t>
+          <t>Nesma Airlines NE-185</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>345</v>
+        <v>400</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>370</v>
+        <v>748</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-25</v>
+        <v>-348</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>30</v>
@@ -624,7 +624,7 @@
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
@@ -636,27 +636,27 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>25-FEB-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>SM-984</t>
+          <t>SM-442</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-114</t>
+          <t>Nile Air NP-104</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>340</v>
+        <v>471</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>370</v>
+        <v>748</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-30</v>
+        <v>-277</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>30</v>
@@ -669,7 +669,7 @@
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -691,17 +691,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-185</t>
+          <t>Nile Air NP-104</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>345</v>
+        <v>471</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>2758</v>
+        <v>748</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-2413</v>
+        <v>-277</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>30</v>
@@ -712,9 +712,9 @@
       <c r="I5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J5" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -726,7 +726,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -736,17 +736,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-181</t>
+          <t>Nile Air NP-104</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>400</v>
+        <v>671</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>2758</v>
+        <v>748</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-2358</v>
+        <v>-77</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>30</v>
@@ -759,7 +759,7 @@
       </c>
       <c r="J6" s="4" t="inlineStr">
         <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -771,7 +771,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -785,13 +785,13 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>571</v>
+        <v>671</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>2758</v>
+        <v>748</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-2187</v>
+        <v>-77</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>30</v>
@@ -804,7 +804,7 @@
       </c>
       <c r="J7" s="4" t="inlineStr">
         <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -826,17 +826,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-104</t>
+          <t>Nesma Airlines NE-185</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>571</v>
+        <v>745</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>628</v>
+        <v>748</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-57</v>
+        <v>-3</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>30</v>
@@ -847,7 +847,7 @@
       <c r="I8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J8" s="3" t="inlineStr">
+      <c r="J8" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -861,7 +861,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -878,10 +878,10 @@
         <v>671</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>868</v>
+        <v>988</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-197</v>
+        <v>-317</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>30</v>
@@ -894,7 +894,7 @@
       </c>
       <c r="J9" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -906,7 +906,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -916,17 +916,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-104</t>
+          <t>Nesma Airlines NE-181</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>621</v>
+        <v>745</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>748</v>
+        <v>988</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-127</v>
+        <v>-243</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>30</v>
@@ -939,7 +939,7 @@
       </c>
       <c r="J10" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -951,7 +951,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>11-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -961,17 +961,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-185</t>
+          <t>Nesma Airlines NE-187</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
         <v>745</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>748</v>
+        <v>868</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-3</v>
+        <v>-123</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>30</v>
@@ -982,7 +982,7 @@
       <c r="I11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J11" s="3" t="inlineStr">
+      <c r="J11" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -996,7 +996,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>16-MAR-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -1006,17 +1006,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-104</t>
+          <t>Nesma Airlines NE-181</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>671</v>
+        <v>1081</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>988</v>
+        <v>1858</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-317</v>
+        <v>-777</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>30</v>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="J12" s="5" t="inlineStr">
         <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1041,7 +1041,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>745</v>
+        <v>1081</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>988</v>
+        <v>1558</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-243</v>
+        <v>-477</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>30</v>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="J13" s="5" t="inlineStr">
         <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1086,7 +1086,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1096,17 +1096,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-187</t>
+          <t>Nile Air NP-304</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>745</v>
+        <v>1101</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>748</v>
+        <v>1558</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-3</v>
+        <v>-457</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>30</v>
@@ -1117,9 +1117,9 @@
       <c r="I14" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J14" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1141,17 +1141,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-181</t>
+          <t>Nile Air NP-104</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1081</v>
+        <v>1101</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>1858</v>
+        <v>1558</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-777</v>
+        <v>-457</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>30</v>
@@ -1162,7 +1162,7 @@
       <c r="I15" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J15" s="4" t="inlineStr">
+      <c r="J15" s="5" t="inlineStr">
         <is>
           <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
@@ -1176,7 +1176,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>18-MAR-26</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -1186,17 +1186,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-181</t>
+          <t>Nile Air NP-304</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1081</v>
+        <v>1471</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>2278</v>
+        <v>2758</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-1197</v>
+        <v>-1287</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>30</v>
@@ -1207,7 +1207,7 @@
       <c r="I16" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J16" s="4" t="inlineStr">
+      <c r="J16" s="5" t="inlineStr">
         <is>
           <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
@@ -1221,27 +1221,27 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>19-MAR-26</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>SM-442</t>
+          <t>SM-988</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-304</t>
+          <t>Nile Air NP-104</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>1271</v>
+        <v>1471</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>2278</v>
+        <v>1558</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-1007</v>
+        <v>-87</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>30</v>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="J17" s="4" t="inlineStr">
         <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1266,7 +1266,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>21-MAR-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -1276,17 +1276,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-104</t>
+          <t>Nesma Airlines NE-187</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1271</v>
+        <v>1751</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>2278</v>
+        <v>1858</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-1007</v>
+        <v>-107</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>30</v>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="J18" s="4" t="inlineStr">
         <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1311,27 +1311,27 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>18-MAR-26</t>
+          <t>21-MAR-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>SM-442</t>
+          <t>SM-942</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-304</t>
+          <t>Nesma Airlines NE-187</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>1771</v>
+        <v>1751</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>2758</v>
+        <v>3238</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-987</v>
+        <v>-1487</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>30</v>
@@ -1342,7 +1342,7 @@
       <c r="I19" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J19" s="4" t="inlineStr">
+      <c r="J19" s="5" t="inlineStr">
         <is>
           <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
@@ -1356,7 +1356,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -1366,17 +1366,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-104</t>
+          <t>Nile Air NP-304</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1771</v>
+        <v>1101</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>2278</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-507</v>
+        <v>-1177</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>30</v>
@@ -1387,7 +1387,7 @@
       <c r="I20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J20" s="4" t="inlineStr">
+      <c r="J20" s="5" t="inlineStr">
         <is>
           <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
@@ -1401,7 +1401,7 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -1411,17 +1411,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-187</t>
+          <t>Nile Air NP-104</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>2051</v>
+        <v>1101</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>2278</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-227</v>
+        <v>-1177</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>30</v>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="J21" s="5" t="inlineStr">
         <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1446,7 +1446,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -1456,17 +1456,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-181</t>
+          <t>Nesma Airlines NE-187</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>2051</v>
+        <v>1751</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>2278</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-227</v>
+        <v>-527</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>30</v>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="J22" s="5" t="inlineStr">
         <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
@@ -1491,7 +1491,7 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>25-MAR-26</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -1501,17 +1501,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-104</t>
+          <t>Nile Air NP-114</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>1771</v>
+        <v>1471</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>1858</v>
+        <v>3238</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-87</v>
+        <v>-1767</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>30</v>
@@ -1522,9 +1522,9 @@
       <c r="I23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J23" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J23" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
@@ -1536,17 +1536,17 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>21-MAR-26</t>
+          <t>25-MAR-26</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>SM-942</t>
+          <t>SM-988</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-187</t>
+          <t>Nesma Airlines NE-183</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
@@ -1567,7 +1567,7 @@
       <c r="I24" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J24" s="4" t="inlineStr">
+      <c r="J24" s="5" t="inlineStr">
         <is>
           <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
@@ -1581,27 +1581,27 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>25-MAR-26</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>SM-442</t>
+          <t>SM-988</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-304</t>
+          <t>Nile Air NP-404</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>1271</v>
+        <v>2521</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>2278</v>
+        <v>3238</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-1007</v>
+        <v>-717</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>30</v>
@@ -1612,7 +1612,7 @@
       <c r="I25" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J25" s="4" t="inlineStr">
+      <c r="J25" s="5" t="inlineStr">
         <is>
           <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
@@ -1626,7 +1626,7 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>29-MAR-26</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1636,17 +1636,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-104</t>
+          <t>Nile Air NP-114</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>1471</v>
+        <v>1271</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>2278</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-807</v>
+        <v>-1007</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>30</v>
@@ -1657,7 +1657,7 @@
       <c r="I26" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J26" s="4" t="inlineStr">
+      <c r="J26" s="5" t="inlineStr">
         <is>
           <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
@@ -1671,7 +1671,7 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>31-MAR-26</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
@@ -1681,17 +1681,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-187</t>
+          <t>Nesma Airlines NE-181</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>1751</v>
+        <v>1251</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>2278</v>
+        <v>1558</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-527</v>
+        <v>-307</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>30</v>
@@ -1702,9 +1702,9 @@
       <c r="I27" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J27" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J27" s="3" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
@@ -1716,27 +1716,27 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>25-MAR-26</t>
+          <t>31-MAR-26</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>SM-988</t>
+          <t>SM-442</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-404</t>
+          <t>Nile Air NP-104</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
         <v>1271</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>3238</v>
+        <v>1558</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-1967</v>
+        <v>-287</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>30</v>
@@ -1747,9 +1747,9 @@
       <c r="I28" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J28" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J28" s="3" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
@@ -1761,27 +1761,27 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>25-MAR-26</t>
+          <t>31-MAR-26</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>SM-988</t>
+          <t>SM-442</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-114</t>
+          <t>Nesma Airlines NE-183</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>1471</v>
+        <v>1451</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>3238</v>
+        <v>1558</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-1767</v>
+        <v>-107</v>
       </c>
       <c r="G29" s="2" t="n">
         <v>30</v>
@@ -1794,1000 +1794,10 @@
       </c>
       <c r="J29" s="4" t="inlineStr">
         <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>25-MAR-26</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>SM-988</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>Nesma Airlines NE-183</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>1751</v>
-      </c>
-      <c r="E30" s="2" t="n">
-        <v>3238</v>
-      </c>
-      <c r="F30" s="2" t="n">
-        <v>-1487</v>
-      </c>
-      <c r="G30" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>29-MAR-26</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>SM-442</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-114</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>1271</v>
-      </c>
-      <c r="E31" s="2" t="n">
-        <v>2278</v>
-      </c>
-      <c r="F31" s="2" t="n">
-        <v>-1007</v>
-      </c>
-      <c r="G31" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>31-MAR-26</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>SM-442</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-104</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>1271</v>
-      </c>
-      <c r="E32" s="2" t="n">
-        <v>1558</v>
-      </c>
-      <c r="F32" s="2" t="n">
-        <v>-287</v>
-      </c>
-      <c r="G32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>31-MAR-26</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>SM-442</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="inlineStr">
-        <is>
-          <t>Nesma Airlines NE-183</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>1451</v>
-      </c>
-      <c r="E33" s="2" t="n">
-        <v>1558</v>
-      </c>
-      <c r="F33" s="2" t="n">
-        <v>-107</v>
-      </c>
-      <c r="G33" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H33" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="inlineStr">
-        <is>
-          <t>07-APR-26</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="inlineStr">
-        <is>
-          <t>SM-442</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-104</t>
-        </is>
-      </c>
-      <c r="D34" s="2" t="n">
-        <v>571</v>
-      </c>
-      <c r="E34" s="2" t="n">
-        <v>748</v>
-      </c>
-      <c r="F34" s="2" t="n">
-        <v>-177</v>
-      </c>
-      <c r="G34" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>18-APR-26</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>SM-442</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-104</t>
-        </is>
-      </c>
-      <c r="D35" s="2" t="n">
-        <v>571</v>
-      </c>
-      <c r="E35" s="2" t="n">
-        <v>628</v>
-      </c>
-      <c r="F35" s="2" t="n">
-        <v>-57</v>
-      </c>
-      <c r="G35" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>21-APR-26</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>SM-442</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-104</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="n">
-        <v>571</v>
-      </c>
-      <c r="E36" s="2" t="n">
-        <v>628</v>
-      </c>
-      <c r="F36" s="2" t="n">
-        <v>-57</v>
-      </c>
-      <c r="G36" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H36" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>25-APR-26</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>SM-442</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-104</t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="n">
-        <v>571</v>
-      </c>
-      <c r="E37" s="2" t="n">
-        <v>628</v>
-      </c>
-      <c r="F37" s="2" t="n">
-        <v>-57</v>
-      </c>
-      <c r="G37" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t>28-APR-26</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>SM-442</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-104</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>571</v>
-      </c>
-      <c r="E38" s="2" t="n">
-        <v>628</v>
-      </c>
-      <c r="F38" s="2" t="n">
-        <v>-57</v>
-      </c>
-      <c r="G38" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H38" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I38" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="inlineStr">
-        <is>
-          <t>02-MAY-26</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="inlineStr">
-        <is>
-          <t>SM-442</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-104</t>
-        </is>
-      </c>
-      <c r="D39" s="2" t="n">
-        <v>571</v>
-      </c>
-      <c r="E39" s="2" t="n">
-        <v>628</v>
-      </c>
-      <c r="F39" s="2" t="n">
-        <v>-57</v>
-      </c>
-      <c r="G39" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H39" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I39" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <t>05-MAY-26</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <t>SM-442</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-104</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>571</v>
-      </c>
-      <c r="E40" s="2" t="n">
-        <v>628</v>
-      </c>
-      <c r="F40" s="2" t="n">
-        <v>-57</v>
-      </c>
-      <c r="G40" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H40" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>09-MAY-26</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>SM-442</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-104</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="n">
-        <v>571</v>
-      </c>
-      <c r="E41" s="2" t="n">
-        <v>628</v>
-      </c>
-      <c r="F41" s="2" t="n">
-        <v>-57</v>
-      </c>
-      <c r="G41" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H41" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I41" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="inlineStr">
-        <is>
-          <t>23-MAY-26</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>SM-448</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-104</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="n">
-        <v>1101</v>
-      </c>
-      <c r="E42" s="2" t="n">
-        <v>1108</v>
-      </c>
-      <c r="F42" s="2" t="n">
-        <v>-7</v>
-      </c>
-      <c r="G42" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H42" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>26-MAY-26</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>SM-442</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-104</t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>1101</v>
-      </c>
-      <c r="E43" s="2" t="n">
-        <v>1108</v>
-      </c>
-      <c r="F43" s="2" t="n">
-        <v>-7</v>
-      </c>
-      <c r="G43" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H43" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>30-MAY-26</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>SM-442</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-104</t>
-        </is>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>2071</v>
-      </c>
-      <c r="E44" s="2" t="n">
-        <v>2278</v>
-      </c>
-      <c r="F44" s="2" t="n">
-        <v>-207</v>
-      </c>
-      <c r="G44" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H44" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I44" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>02-JUN-26</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>SM-442</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-104</t>
-        </is>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>2071</v>
-      </c>
-      <c r="E45" s="2" t="n">
-        <v>2278</v>
-      </c>
-      <c r="F45" s="2" t="n">
-        <v>-207</v>
-      </c>
-      <c r="G45" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H45" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="inlineStr">
-        <is>
-          <t>06-JUN-26</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>SM-448</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-104</t>
-        </is>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>2071</v>
-      </c>
-      <c r="E46" s="2" t="n">
-        <v>2278</v>
-      </c>
-      <c r="F46" s="2" t="n">
-        <v>-207</v>
-      </c>
-      <c r="G46" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I46" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="inlineStr">
-        <is>
-          <t>09-JUN-26</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>SM-442</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-104</t>
-        </is>
-      </c>
-      <c r="D47" s="2" t="n">
-        <v>763</v>
-      </c>
-      <c r="E47" s="2" t="n">
-        <v>868</v>
-      </c>
-      <c r="F47" s="2" t="n">
-        <v>-105</v>
-      </c>
-      <c r="G47" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H47" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K47" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t>13-JUN-26</t>
-        </is>
-      </c>
-      <c r="B48" s="2" t="inlineStr">
-        <is>
-          <t>SM-448</t>
-        </is>
-      </c>
-      <c r="C48" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-104</t>
-        </is>
-      </c>
-      <c r="D48" s="2" t="n">
-        <v>763</v>
-      </c>
-      <c r="E48" s="2" t="n">
-        <v>868</v>
-      </c>
-      <c r="F48" s="2" t="n">
-        <v>-105</v>
-      </c>
-      <c r="G48" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H48" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>16-JUN-26</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>SM-442</t>
-        </is>
-      </c>
-      <c r="C49" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-104</t>
-        </is>
-      </c>
-      <c r="D49" s="2" t="n">
-        <v>763</v>
-      </c>
-      <c r="E49" s="2" t="n">
-        <v>868</v>
-      </c>
-      <c r="F49" s="2" t="n">
-        <v>-105</v>
-      </c>
-      <c r="G49" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H49" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>20-JUN-26</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>SM-448</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-104</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v>763</v>
-      </c>
-      <c r="E50" s="2" t="n">
-        <v>868</v>
-      </c>
-      <c r="F50" s="2" t="n">
-        <v>-105</v>
-      </c>
-      <c r="G50" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H50" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I50" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="inlineStr">
-        <is>
-          <t>23-JUN-26</t>
-        </is>
-      </c>
-      <c r="B51" s="2" t="inlineStr">
-        <is>
-          <t>SM-442</t>
-        </is>
-      </c>
-      <c r="C51" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-104</t>
-        </is>
-      </c>
-      <c r="D51" s="2" t="n">
-        <v>763</v>
-      </c>
-      <c r="E51" s="2" t="n">
-        <v>868</v>
-      </c>
-      <c r="F51" s="2" t="n">
-        <v>-105</v>
-      </c>
-      <c r="G51" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H51" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>
